--- a/Code/Results/Cases/Case_3_229/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_229/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.000013665764135</v>
+        <v>1.023188248718674</v>
       </c>
       <c r="D2">
-        <v>1.016866453332121</v>
+        <v>1.028624566296347</v>
       </c>
       <c r="E2">
-        <v>1.006502277148501</v>
+        <v>1.023841431239618</v>
       </c>
       <c r="F2">
-        <v>0.9672225445473608</v>
+        <v>1.037601164883557</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041195791556455</v>
+        <v>1.033721375922591</v>
       </c>
       <c r="J2">
-        <v>1.022193968099203</v>
+        <v>1.0283698706378</v>
       </c>
       <c r="K2">
-        <v>1.028095708070897</v>
+        <v>1.031440840929838</v>
       </c>
       <c r="L2">
-        <v>1.017871762146297</v>
+        <v>1.02667168423602</v>
       </c>
       <c r="M2">
-        <v>0.9791582303301134</v>
+        <v>1.040391583985057</v>
       </c>
       <c r="N2">
-        <v>1.011380808271661</v>
+        <v>1.013520043920996</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.003726468747794</v>
+        <v>1.023947941862817</v>
       </c>
       <c r="D3">
-        <v>1.019622895353642</v>
+        <v>1.029197239628194</v>
       </c>
       <c r="E3">
-        <v>1.009405447014946</v>
+        <v>1.024481170809434</v>
       </c>
       <c r="F3">
-        <v>0.9786826888356578</v>
+        <v>1.03976245779677</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042744598102112</v>
+        <v>1.033957088156699</v>
       </c>
       <c r="J3">
-        <v>1.02411605940489</v>
+        <v>1.028768919443265</v>
       </c>
       <c r="K3">
-        <v>1.030010706234939</v>
+        <v>1.031822123701145</v>
       </c>
       <c r="L3">
-        <v>1.019919381394018</v>
+        <v>1.02711884403465</v>
       </c>
       <c r="M3">
-        <v>0.9895957960471363</v>
+        <v>1.042359146019254</v>
       </c>
       <c r="N3">
-        <v>1.012021950882461</v>
+        <v>1.013652721290149</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.006077872212143</v>
+        <v>1.0244398088786</v>
       </c>
       <c r="D4">
-        <v>1.02136737657508</v>
+        <v>1.029567874401122</v>
       </c>
       <c r="E4">
-        <v>1.011249296558109</v>
+        <v>1.024895773767951</v>
       </c>
       <c r="F4">
-        <v>0.9857795886407333</v>
+        <v>1.041155598438508</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043705244408072</v>
+        <v>1.034108016894516</v>
       </c>
       <c r="J4">
-        <v>1.025327372921439</v>
+        <v>1.029026750356593</v>
       </c>
       <c r="K4">
-        <v>1.031214578656824</v>
+        <v>1.032068214857898</v>
       </c>
       <c r="L4">
-        <v>1.021213822247854</v>
+        <v>1.02740814811355</v>
       </c>
       <c r="M4">
-        <v>0.9960527265617726</v>
+        <v>1.043626594694832</v>
       </c>
       <c r="N4">
-        <v>1.012425986884242</v>
+        <v>1.013738424989113</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.007054707579479</v>
+        <v>1.024646659682289</v>
       </c>
       <c r="D5">
-        <v>1.022091826618492</v>
+        <v>1.029723707240457</v>
       </c>
       <c r="E5">
-        <v>1.012016512597216</v>
+        <v>1.025070227245104</v>
       </c>
       <c r="F5">
-        <v>0.9886932279825316</v>
+        <v>1.041740022020197</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044099654810434</v>
+        <v>1.034171087158562</v>
       </c>
       <c r="J5">
-        <v>1.025829193962289</v>
+        <v>1.029135051274282</v>
       </c>
       <c r="K5">
-        <v>1.031712633778878</v>
+        <v>1.032171522220882</v>
       </c>
       <c r="L5">
-        <v>1.021751021721376</v>
+        <v>1.027529761988014</v>
       </c>
       <c r="M5">
-        <v>0.9987019785552219</v>
+        <v>1.044158095010291</v>
       </c>
       <c r="N5">
-        <v>1.012593363888692</v>
+        <v>1.013774419448877</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.007218051067612</v>
+        <v>1.024681394922618</v>
       </c>
       <c r="D6">
-        <v>1.022212953141402</v>
+        <v>1.029749873301767</v>
       </c>
       <c r="E6">
-        <v>1.012144876085233</v>
+        <v>1.025099527778654</v>
       </c>
       <c r="F6">
-        <v>0.9891785114305977</v>
+        <v>1.041838076729413</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044165337545673</v>
+        <v>1.03418165467256</v>
       </c>
       <c r="J6">
-        <v>1.025913026410159</v>
+        <v>1.029153230122506</v>
       </c>
       <c r="K6">
-        <v>1.031795797699392</v>
+        <v>1.032188859225603</v>
       </c>
       <c r="L6">
-        <v>1.021840819054148</v>
+        <v>1.027550180919715</v>
       </c>
       <c r="M6">
-        <v>0.9991431288713144</v>
+        <v>1.044247258778881</v>
       </c>
       <c r="N6">
-        <v>1.012621324850902</v>
+        <v>1.013780461000183</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.006090970029347</v>
+        <v>1.024442572555322</v>
       </c>
       <c r="D7">
-        <v>1.021377091257023</v>
+        <v>1.029569956577074</v>
       </c>
       <c r="E7">
-        <v>1.011259578867129</v>
+        <v>1.024898104218367</v>
       </c>
       <c r="F7">
-        <v>0.9858187876975809</v>
+        <v>1.041163412420287</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043710551038224</v>
+        <v>1.034108861134931</v>
       </c>
       <c r="J7">
-        <v>1.025334106987287</v>
+        <v>1.029028197837323</v>
       </c>
       <c r="K7">
-        <v>1.03122126485358</v>
+        <v>1.032069595842747</v>
       </c>
       <c r="L7">
-        <v>1.02122102737448</v>
+        <v>1.027409773162215</v>
       </c>
       <c r="M7">
-        <v>0.9960883752273205</v>
+        <v>1.043633701839595</v>
       </c>
       <c r="N7">
-        <v>1.01242823298796</v>
+        <v>1.013738906087961</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.001279320144425</v>
+        <v>1.023444929155903</v>
       </c>
       <c r="D8">
-        <v>1.017806383819384</v>
+        <v>1.02881808778072</v>
       </c>
       <c r="E8">
-        <v>1.00749083416334</v>
+        <v>1.024057499373395</v>
       </c>
       <c r="F8">
-        <v>0.9711656427675749</v>
+        <v>1.038332712351843</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041728138378945</v>
+        <v>1.033801366485383</v>
       </c>
       <c r="J8">
-        <v>1.022850477020085</v>
+        <v>1.02850480972366</v>
       </c>
       <c r="K8">
-        <v>1.028750439569361</v>
+        <v>1.031569826556983</v>
       </c>
       <c r="L8">
-        <v>1.018570284453269</v>
+        <v>1.026822811653074</v>
       </c>
       <c r="M8">
-        <v>0.9827508976583431</v>
+        <v>1.041057727296836</v>
       </c>
       <c r="N8">
-        <v>1.011599798482996</v>
+        <v>1.013564913339453</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9923834262917188</v>
+        <v>1.021689239070095</v>
       </c>
       <c r="D9">
-        <v>1.011192192259545</v>
+        <v>1.027493803962557</v>
       </c>
       <c r="E9">
-        <v>1.000565333723679</v>
+        <v>1.022581252982988</v>
       </c>
       <c r="F9">
-        <v>0.9425617966408188</v>
+        <v>1.033302219466217</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.037890425068488</v>
+        <v>1.033247269282378</v>
       </c>
       <c r="J9">
-        <v>1.018208042370325</v>
+        <v>1.027579625016719</v>
       </c>
       <c r="K9">
-        <v>1.024106256805559</v>
+        <v>1.030684382036707</v>
       </c>
       <c r="L9">
-        <v>1.013649245436738</v>
+        <v>1.02578823491012</v>
       </c>
       <c r="M9">
-        <v>0.9566609920194787</v>
+        <v>1.03647362293883</v>
       </c>
       <c r="N9">
-        <v>1.010051278412788</v>
+        <v>1.013257189859913</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9861296932126881</v>
+        <v>1.020520349361309</v>
       </c>
       <c r="D10">
-        <v>1.006528537468994</v>
+        <v>1.026611373712346</v>
       </c>
       <c r="E10">
-        <v>0.9957262411826379</v>
+        <v>1.021600504634179</v>
       </c>
       <c r="F10">
-        <v>0.9210200464904088</v>
+        <v>1.029918074003136</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035055232244978</v>
+        <v>1.032869556319939</v>
       </c>
       <c r="J10">
-        <v>1.014904639333598</v>
+        <v>1.026960883917485</v>
       </c>
       <c r="K10">
-        <v>1.020780909211272</v>
+        <v>1.030090855569524</v>
       </c>
       <c r="L10">
-        <v>1.01017309079823</v>
+        <v>1.025098352331902</v>
       </c>
       <c r="M10">
-        <v>0.9369784402548068</v>
+        <v>1.033385544254663</v>
       </c>
       <c r="N10">
-        <v>1.008949605649829</v>
+        <v>1.013051287051237</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9833332772094994</v>
+        <v>1.020014585837691</v>
       </c>
       <c r="D11">
-        <v>1.00443797124337</v>
+        <v>1.026229375468611</v>
       </c>
       <c r="E11">
-        <v>0.9935694684180792</v>
+        <v>1.021176649694822</v>
       </c>
       <c r="F11">
-        <v>0.9109211660749666</v>
+        <v>1.02844503252302</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.033748454971776</v>
+        <v>1.03270401226716</v>
       </c>
       <c r="J11">
-        <v>1.013416232918692</v>
+        <v>1.026692499258833</v>
       </c>
       <c r="K11">
-        <v>1.019276676435991</v>
+        <v>1.029833082347137</v>
       </c>
       <c r="L11">
-        <v>1.008613682669504</v>
+        <v>1.024799590021385</v>
       </c>
       <c r="M11">
-        <v>0.9277441259290502</v>
+        <v>1.032040371433604</v>
       </c>
       <c r="N11">
-        <v>1.008453328736777</v>
+        <v>1.012961950450123</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9822800159337136</v>
+        <v>1.019826779249529</v>
       </c>
       <c r="D12">
-        <v>1.003649561962452</v>
+        <v>1.026087499443394</v>
       </c>
       <c r="E12">
-        <v>0.9927581839557273</v>
+        <v>1.021019334349074</v>
       </c>
       <c r="F12">
-        <v>0.9070329853143909</v>
+        <v>1.027896686768256</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.033249662142752</v>
+        <v>1.03264222094304</v>
       </c>
       <c r="J12">
-        <v>1.01285372238616</v>
+        <v>1.026592739182007</v>
       </c>
       <c r="K12">
-        <v>1.018707174551282</v>
+        <v>1.029737217454959</v>
       </c>
       <c r="L12">
-        <v>1.008025453422869</v>
+        <v>1.024688610807868</v>
       </c>
       <c r="M12">
-        <v>0.9241878802652288</v>
+        <v>1.031539474796041</v>
       </c>
       <c r="N12">
-        <v>1.00826579229505</v>
+        <v>1.012928739917834</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9825066253152405</v>
+        <v>1.019867061837178</v>
       </c>
       <c r="D13">
-        <v>1.003819238198185</v>
+        <v>1.026117931646066</v>
       </c>
       <c r="E13">
-        <v>0.9929326844628357</v>
+        <v>1.021053073436108</v>
       </c>
       <c r="F13">
-        <v>0.9078736179918988</v>
+        <v>1.028014363378594</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.033357289764402</v>
+        <v>1.03265548903459</v>
       </c>
       <c r="J13">
-        <v>1.012974836950194</v>
+        <v>1.026614141229615</v>
       </c>
       <c r="K13">
-        <v>1.018829842274507</v>
+        <v>1.029757786075726</v>
       </c>
       <c r="L13">
-        <v>1.008152053518472</v>
+        <v>1.024712416475689</v>
       </c>
       <c r="M13">
-        <v>0.9249567874968911</v>
+        <v>1.031646975493923</v>
       </c>
       <c r="N13">
-        <v>1.008306169885145</v>
+        <v>1.012935864908959</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9832465192369462</v>
+        <v>1.019999060531659</v>
       </c>
       <c r="D14">
-        <v>1.004373051310862</v>
+        <v>1.026217647642848</v>
       </c>
       <c r="E14">
-        <v>0.9935026208770775</v>
+        <v>1.02116364344092</v>
       </c>
       <c r="F14">
-        <v>0.9106027062838099</v>
+        <v>1.028399730642563</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.033707508055819</v>
+        <v>1.032698910724778</v>
       </c>
       <c r="J14">
-        <v>1.013369938683467</v>
+        <v>1.026684254489747</v>
       </c>
       <c r="K14">
-        <v>1.019229828104412</v>
+        <v>1.029825160503039</v>
       </c>
       <c r="L14">
-        <v>1.008565248597808</v>
+        <v>1.024790416557864</v>
       </c>
       <c r="M14">
-        <v>0.9274528711055707</v>
+        <v>1.031998992655409</v>
       </c>
       <c r="N14">
-        <v>1.008437894164664</v>
+        <v>1.012959205806779</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9837004227750695</v>
+        <v>1.020080396782592</v>
       </c>
       <c r="D15">
-        <v>1.004712659357435</v>
+        <v>1.026279087967636</v>
       </c>
       <c r="E15">
-        <v>0.9938523992736562</v>
+        <v>1.021231785623176</v>
       </c>
       <c r="F15">
-        <v>0.9122653002028629</v>
+        <v>1.028637008955424</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.033921461949647</v>
+        <v>1.032725624340299</v>
       </c>
       <c r="J15">
-        <v>1.013612063453201</v>
+        <v>1.026727444295583</v>
       </c>
       <c r="K15">
-        <v>1.01947480900851</v>
+        <v>1.029866656669275</v>
       </c>
       <c r="L15">
-        <v>1.008818610900615</v>
+        <v>1.024838474248088</v>
       </c>
       <c r="M15">
-        <v>0.9289733983218249</v>
+        <v>1.032215716720927</v>
       </c>
       <c r="N15">
-        <v>1.008518619818886</v>
+        <v>1.012973583334208</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9863133162459038</v>
+        <v>1.020553923123214</v>
       </c>
       <c r="D16">
-        <v>1.006665686724246</v>
+        <v>1.026636727793544</v>
       </c>
       <c r="E16">
-        <v>0.995868009765682</v>
+        <v>1.021628651735826</v>
       </c>
       <c r="F16">
-        <v>0.9216723507502086</v>
+        <v>1.030015669780842</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035140171326584</v>
+        <v>1.032880500828605</v>
       </c>
       <c r="J16">
-        <v>1.01500212276227</v>
+        <v>1.026978685903962</v>
       </c>
       <c r="K16">
-        <v>1.02087929688779</v>
+        <v>1.03010794682316</v>
       </c>
       <c r="L16">
-        <v>1.0102753730649</v>
+        <v>1.025118179407737</v>
       </c>
       <c r="M16">
-        <v>0.9375747669455062</v>
+        <v>1.033474647075624</v>
       </c>
       <c r="N16">
-        <v>1.008982111914922</v>
+        <v>1.013057212249305</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9879278111669955</v>
+        <v>1.020851053955156</v>
       </c>
       <c r="D17">
-        <v>1.007870957463021</v>
+        <v>1.026861092647278</v>
       </c>
       <c r="E17">
-        <v>0.9971153058676578</v>
+        <v>1.021877814231243</v>
       </c>
       <c r="F17">
-        <v>0.9273534457624725</v>
+        <v>1.030878383329058</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035882499211844</v>
+        <v>1.032977116339543</v>
       </c>
       <c r="J17">
-        <v>1.01585794306267</v>
+        <v>1.027136158387723</v>
       </c>
       <c r="K17">
-        <v>1.021742373522242</v>
+        <v>1.030259094707699</v>
       </c>
       <c r="L17">
-        <v>1.011174103981154</v>
+        <v>1.025293620885983</v>
       </c>
       <c r="M17">
-        <v>0.9427675711171227</v>
+        <v>1.034262170288529</v>
       </c>
       <c r="N17">
-        <v>1.009267500831956</v>
+        <v>1.013109622450852</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9888610748495005</v>
+        <v>1.021024401349095</v>
       </c>
       <c r="D18">
-        <v>1.008567196827637</v>
+        <v>1.026991970501764</v>
       </c>
       <c r="E18">
-        <v>0.9978369794159029</v>
+        <v>1.022023225143729</v>
       </c>
       <c r="F18">
-        <v>0.9305944099000714</v>
+        <v>1.031380850741338</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036307971662391</v>
+        <v>1.033033278461462</v>
       </c>
       <c r="J18">
-        <v>1.016351604142475</v>
+        <v>1.027227964500971</v>
       </c>
       <c r="K18">
-        <v>1.022239669937688</v>
+        <v>1.03034718222109</v>
       </c>
       <c r="L18">
-        <v>1.011693154158707</v>
+        <v>1.025395949195465</v>
       </c>
       <c r="M18">
-        <v>0.9457293182296491</v>
+        <v>1.034720748411305</v>
       </c>
       <c r="N18">
-        <v>1.009432130282738</v>
+        <v>1.01314017513301</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9891778954698318</v>
+        <v>1.021083514425116</v>
       </c>
       <c r="D19">
-        <v>1.008803479147823</v>
+        <v>1.027036598096858</v>
       </c>
       <c r="E19">
-        <v>0.9980820839328606</v>
+        <v>1.022072819823926</v>
       </c>
       <c r="F19">
-        <v>0.9316877135341055</v>
+        <v>1.031552054973454</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036451812089706</v>
+        <v>1.033052395763902</v>
       </c>
       <c r="J19">
-        <v>1.016519017813615</v>
+        <v>1.027259260395903</v>
       </c>
       <c r="K19">
-        <v>1.022408226099184</v>
+        <v>1.030377205163369</v>
       </c>
       <c r="L19">
-        <v>1.011869283752453</v>
+        <v>1.025430839863762</v>
       </c>
       <c r="M19">
-        <v>0.9467283167109813</v>
+        <v>1.034876982017002</v>
       </c>
       <c r="N19">
-        <v>1.009487961937827</v>
+        <v>1.01315058987315</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9877554727798841</v>
+        <v>1.020819170901781</v>
       </c>
       <c r="D20">
-        <v>1.007742351774322</v>
+        <v>1.02683701942476</v>
       </c>
       <c r="E20">
-        <v>0.996982094352594</v>
+        <v>1.021851073313829</v>
       </c>
       <c r="F20">
-        <v>0.9267515749696604</v>
+        <v>1.0307858990219</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035803641474149</v>
+        <v>1.032966770288195</v>
       </c>
       <c r="J20">
-        <v>1.015766699140409</v>
+        <v>1.027119267727809</v>
       </c>
       <c r="K20">
-        <v>1.021650413861817</v>
+        <v>1.030242885677964</v>
       </c>
       <c r="L20">
-        <v>1.011078218382395</v>
+        <v>1.025274798060736</v>
       </c>
       <c r="M20">
-        <v>0.9422174988321008</v>
+        <v>1.034177756487909</v>
       </c>
       <c r="N20">
-        <v>1.009237072894049</v>
+        <v>1.013104001121831</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9830290518582502</v>
+        <v>1.019960188643265</v>
       </c>
       <c r="D21">
-        <v>1.004210306050603</v>
+        <v>1.026188283348632</v>
       </c>
       <c r="E21">
-        <v>0.9933350779272826</v>
+        <v>1.021131079922406</v>
       </c>
       <c r="F21">
-        <v>0.9098030394640227</v>
+        <v>1.028286282818125</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.033604761448028</v>
+        <v>1.032686132438746</v>
       </c>
       <c r="J21">
-        <v>1.013253866084117</v>
+        <v>1.026663609817242</v>
       </c>
       <c r="K21">
-        <v>1.019112349522899</v>
+        <v>1.029805323631174</v>
       </c>
       <c r="L21">
-        <v>1.008443829101866</v>
+        <v>1.02476744763048</v>
       </c>
       <c r="M21">
-        <v>0.926721502737357</v>
+        <v>1.031895366881042</v>
       </c>
       <c r="N21">
-        <v>1.008399195724111</v>
+        <v>1.012952333237866</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9799723645136301</v>
+        <v>1.019420439494478</v>
       </c>
       <c r="D22">
-        <v>1.00192001723601</v>
+        <v>1.025780484807849</v>
       </c>
       <c r="E22">
-        <v>0.9909826204612556</v>
+        <v>1.020679104928604</v>
       </c>
       <c r="F22">
-        <v>0.8983388257702555</v>
+        <v>1.026707755755178</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.032143654638251</v>
+        <v>1.032507942572226</v>
       </c>
       <c r="J22">
-        <v>1.011617471930968</v>
+        <v>1.026376714160805</v>
       </c>
       <c r="K22">
-        <v>1.017453533926412</v>
+        <v>1.02952953709588</v>
       </c>
       <c r="L22">
-        <v>1.006734855217622</v>
+        <v>1.024448424027877</v>
       </c>
       <c r="M22">
-        <v>0.9162343809780579</v>
+        <v>1.030453148221941</v>
       </c>
       <c r="N22">
-        <v>1.007853681038594</v>
+        <v>1.012856817741459</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9816013201110553</v>
+        <v>1.01970653959961</v>
       </c>
       <c r="D23">
-        <v>1.003141211893597</v>
+        <v>1.025996658195928</v>
       </c>
       <c r="E23">
-        <v>0.9922357080662635</v>
+        <v>1.020918637565975</v>
       </c>
       <c r="F23">
-        <v>0.9045015578723939</v>
+        <v>1.027545231565467</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.032926280131791</v>
+        <v>1.032602570044467</v>
       </c>
       <c r="J23">
-        <v>1.012490683807595</v>
+        <v>1.026528841448428</v>
       </c>
       <c r="K23">
-        <v>1.018339321290163</v>
+        <v>1.029675800778075</v>
       </c>
       <c r="L23">
-        <v>1.00764614362748</v>
+        <v>1.024617547468671</v>
       </c>
       <c r="M23">
-        <v>0.9218723170998552</v>
+        <v>1.031218389132226</v>
       </c>
       <c r="N23">
-        <v>1.008144764716283</v>
+        <v>1.012907467090733</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9878333710824666</v>
+        <v>1.020833577370408</v>
       </c>
       <c r="D24">
-        <v>1.00780048399929</v>
+        <v>1.026847897048373</v>
       </c>
       <c r="E24">
-        <v>0.9970423049228222</v>
+        <v>1.021863156140748</v>
       </c>
       <c r="F24">
-        <v>0.9270237576728829</v>
+        <v>1.030827690980802</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035839297004855</v>
+        <v>1.032971445817027</v>
       </c>
       <c r="J24">
-        <v>1.015807945345793</v>
+        <v>1.02712690002902</v>
       </c>
       <c r="K24">
-        <v>1.021691985312056</v>
+        <v>1.030250210071179</v>
       </c>
       <c r="L24">
-        <v>1.011121560855038</v>
+        <v>1.025283303297067</v>
       </c>
       <c r="M24">
-        <v>0.9424662588641449</v>
+        <v>1.034215901831398</v>
       </c>
       <c r="N24">
-        <v>1.009250827612067</v>
+        <v>1.013106541211993</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9947366861954754</v>
+        <v>1.02214285265814</v>
       </c>
       <c r="D25">
-        <v>1.012943783389721</v>
+        <v>1.027836089312009</v>
       </c>
       <c r="E25">
-        <v>1.002392339238879</v>
+        <v>1.022962299527358</v>
       </c>
       <c r="F25">
-        <v>0.9503407055261895</v>
+        <v>1.03460795045666</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.038927511854435</v>
+        <v>1.033391976456218</v>
       </c>
       <c r="J25">
-        <v>1.019442489498882</v>
+        <v>1.027819151566173</v>
       </c>
       <c r="K25">
-        <v>1.025344432647136</v>
+        <v>1.030913859054774</v>
       </c>
       <c r="L25">
-        <v>1.014953630394858</v>
+        <v>1.026055728257127</v>
       </c>
       <c r="M25">
-        <v>0.963762157037051</v>
+        <v>1.037664230731661</v>
       </c>
       <c r="N25">
-        <v>1.010463018686258</v>
+        <v>1.013336876830971</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_229/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_229/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.023188248718674</v>
+        <v>1.000013665764135</v>
       </c>
       <c r="D2">
-        <v>1.028624566296347</v>
+        <v>1.016866453332121</v>
       </c>
       <c r="E2">
-        <v>1.023841431239618</v>
+        <v>1.0065022771485</v>
       </c>
       <c r="F2">
-        <v>1.037601164883557</v>
+        <v>0.9672225445473608</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.033721375922591</v>
+        <v>1.041195791556455</v>
       </c>
       <c r="J2">
-        <v>1.0283698706378</v>
+        <v>1.022193968099203</v>
       </c>
       <c r="K2">
-        <v>1.031440840929838</v>
+        <v>1.028095708070897</v>
       </c>
       <c r="L2">
-        <v>1.02667168423602</v>
+        <v>1.017871762146297</v>
       </c>
       <c r="M2">
-        <v>1.040391583985057</v>
+        <v>0.9791582303301135</v>
       </c>
       <c r="N2">
-        <v>1.013520043920996</v>
+        <v>1.011380808271661</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.023947941862817</v>
+        <v>1.003726468747794</v>
       </c>
       <c r="D3">
-        <v>1.029197239628194</v>
+        <v>1.019622895353642</v>
       </c>
       <c r="E3">
-        <v>1.024481170809434</v>
+        <v>1.009405447014946</v>
       </c>
       <c r="F3">
-        <v>1.03976245779677</v>
+        <v>0.9786826888356591</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.033957088156699</v>
+        <v>1.042744598102112</v>
       </c>
       <c r="J3">
-        <v>1.028768919443265</v>
+        <v>1.024116059404891</v>
       </c>
       <c r="K3">
-        <v>1.031822123701145</v>
+        <v>1.030010706234939</v>
       </c>
       <c r="L3">
-        <v>1.02711884403465</v>
+        <v>1.019919381394018</v>
       </c>
       <c r="M3">
-        <v>1.042359146019254</v>
+        <v>0.9895957960471375</v>
       </c>
       <c r="N3">
-        <v>1.013652721290149</v>
+        <v>1.012021950882461</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.0244398088786</v>
+        <v>1.006077872212143</v>
       </c>
       <c r="D4">
-        <v>1.029567874401122</v>
+        <v>1.02136737657508</v>
       </c>
       <c r="E4">
-        <v>1.024895773767951</v>
+        <v>1.011249296558109</v>
       </c>
       <c r="F4">
-        <v>1.041155598438508</v>
+        <v>0.9857795886407333</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.034108016894516</v>
+        <v>1.043705244408072</v>
       </c>
       <c r="J4">
-        <v>1.029026750356593</v>
+        <v>1.025327372921438</v>
       </c>
       <c r="K4">
-        <v>1.032068214857898</v>
+        <v>1.031214578656824</v>
       </c>
       <c r="L4">
-        <v>1.02740814811355</v>
+        <v>1.021213822247854</v>
       </c>
       <c r="M4">
-        <v>1.043626594694832</v>
+        <v>0.9960527265617728</v>
       </c>
       <c r="N4">
-        <v>1.013738424989113</v>
+        <v>1.012425986884242</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.024646659682289</v>
+        <v>1.007054707579479</v>
       </c>
       <c r="D5">
-        <v>1.029723707240457</v>
+        <v>1.022091826618493</v>
       </c>
       <c r="E5">
-        <v>1.025070227245104</v>
+        <v>1.012016512597216</v>
       </c>
       <c r="F5">
-        <v>1.041740022020197</v>
+        <v>0.9886932279825329</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.034171087158562</v>
+        <v>1.044099654810435</v>
       </c>
       <c r="J5">
-        <v>1.029135051274282</v>
+        <v>1.025829193962289</v>
       </c>
       <c r="K5">
-        <v>1.032171522220882</v>
+        <v>1.031712633778879</v>
       </c>
       <c r="L5">
-        <v>1.027529761988014</v>
+        <v>1.021751021721376</v>
       </c>
       <c r="M5">
-        <v>1.044158095010291</v>
+        <v>0.9987019785552232</v>
       </c>
       <c r="N5">
-        <v>1.013774419448877</v>
+        <v>1.012593363888692</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.024681394922618</v>
+        <v>1.007218051067612</v>
       </c>
       <c r="D6">
-        <v>1.029749873301767</v>
+        <v>1.022212953141402</v>
       </c>
       <c r="E6">
-        <v>1.025099527778654</v>
+        <v>1.012144876085233</v>
       </c>
       <c r="F6">
-        <v>1.041838076729413</v>
+        <v>0.9891785114305969</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.03418165467256</v>
+        <v>1.044165337545673</v>
       </c>
       <c r="J6">
-        <v>1.029153230122506</v>
+        <v>1.025913026410159</v>
       </c>
       <c r="K6">
-        <v>1.032188859225603</v>
+        <v>1.031795797699392</v>
       </c>
       <c r="L6">
-        <v>1.027550180919715</v>
+        <v>1.021840819054148</v>
       </c>
       <c r="M6">
-        <v>1.044247258778881</v>
+        <v>0.9991431288713138</v>
       </c>
       <c r="N6">
-        <v>1.013780461000183</v>
+        <v>1.012621324850902</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.024442572555322</v>
+        <v>1.006090970029347</v>
       </c>
       <c r="D7">
-        <v>1.029569956577074</v>
+        <v>1.021377091257023</v>
       </c>
       <c r="E7">
-        <v>1.024898104218367</v>
+        <v>1.011259578867129</v>
       </c>
       <c r="F7">
-        <v>1.041163412420287</v>
+        <v>0.9858187876975806</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.034108861134931</v>
+        <v>1.043710551038224</v>
       </c>
       <c r="J7">
-        <v>1.029028197837323</v>
+        <v>1.025334106987286</v>
       </c>
       <c r="K7">
-        <v>1.032069595842747</v>
+        <v>1.03122126485358</v>
       </c>
       <c r="L7">
-        <v>1.027409773162215</v>
+        <v>1.021221027374479</v>
       </c>
       <c r="M7">
-        <v>1.043633701839595</v>
+        <v>0.9960883752273201</v>
       </c>
       <c r="N7">
-        <v>1.013738906087961</v>
+        <v>1.01242823298796</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.023444929155903</v>
+        <v>1.001279320144425</v>
       </c>
       <c r="D8">
-        <v>1.02881808778072</v>
+        <v>1.017806383819383</v>
       </c>
       <c r="E8">
-        <v>1.024057499373395</v>
+        <v>1.00749083416334</v>
       </c>
       <c r="F8">
-        <v>1.038332712351843</v>
+        <v>0.9711656427675744</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.033801366485383</v>
+        <v>1.041728138378944</v>
       </c>
       <c r="J8">
-        <v>1.02850480972366</v>
+        <v>1.022850477020085</v>
       </c>
       <c r="K8">
-        <v>1.031569826556983</v>
+        <v>1.028750439569361</v>
       </c>
       <c r="L8">
-        <v>1.026822811653074</v>
+        <v>1.018570284453269</v>
       </c>
       <c r="M8">
-        <v>1.041057727296836</v>
+        <v>0.9827508976583426</v>
       </c>
       <c r="N8">
-        <v>1.013564913339453</v>
+        <v>1.011599798482996</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.021689239070095</v>
+        <v>0.9923834262917178</v>
       </c>
       <c r="D9">
-        <v>1.027493803962557</v>
+        <v>1.011192192259545</v>
       </c>
       <c r="E9">
-        <v>1.022581252982988</v>
+        <v>1.000565333723678</v>
       </c>
       <c r="F9">
-        <v>1.033302219466217</v>
+        <v>0.9425617966408181</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.033247269282378</v>
+        <v>1.037890425068488</v>
       </c>
       <c r="J9">
-        <v>1.027579625016719</v>
+        <v>1.018208042370324</v>
       </c>
       <c r="K9">
-        <v>1.030684382036707</v>
+        <v>1.024106256805558</v>
       </c>
       <c r="L9">
-        <v>1.02578823491012</v>
+        <v>1.013649245436737</v>
       </c>
       <c r="M9">
-        <v>1.03647362293883</v>
+        <v>0.9566609920194781</v>
       </c>
       <c r="N9">
-        <v>1.013257189859913</v>
+        <v>1.010051278412788</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.020520349361309</v>
+        <v>0.9861296932126882</v>
       </c>
       <c r="D10">
-        <v>1.026611373712346</v>
+        <v>1.006528537468994</v>
       </c>
       <c r="E10">
-        <v>1.021600504634179</v>
+        <v>0.9957262411826378</v>
       </c>
       <c r="F10">
-        <v>1.029918074003136</v>
+        <v>0.9210200464904079</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032869556319939</v>
+        <v>1.035055232244978</v>
       </c>
       <c r="J10">
-        <v>1.026960883917485</v>
+        <v>1.014904639333598</v>
       </c>
       <c r="K10">
-        <v>1.030090855569524</v>
+        <v>1.020780909211273</v>
       </c>
       <c r="L10">
-        <v>1.025098352331902</v>
+        <v>1.01017309079823</v>
       </c>
       <c r="M10">
-        <v>1.033385544254663</v>
+        <v>0.9369784402548061</v>
       </c>
       <c r="N10">
-        <v>1.013051287051237</v>
+        <v>1.008949605649829</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.020014585837691</v>
+        <v>0.9833332772094993</v>
       </c>
       <c r="D11">
-        <v>1.026229375468611</v>
+        <v>1.00443797124337</v>
       </c>
       <c r="E11">
-        <v>1.021176649694822</v>
+        <v>0.9935694684180791</v>
       </c>
       <c r="F11">
-        <v>1.02844503252302</v>
+        <v>0.9109211660749656</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03270401226716</v>
+        <v>1.033748454971776</v>
       </c>
       <c r="J11">
-        <v>1.026692499258833</v>
+        <v>1.013416232918692</v>
       </c>
       <c r="K11">
-        <v>1.029833082347137</v>
+        <v>1.019276676435991</v>
       </c>
       <c r="L11">
-        <v>1.024799590021385</v>
+        <v>1.008613682669504</v>
       </c>
       <c r="M11">
-        <v>1.032040371433604</v>
+        <v>0.9277441259290491</v>
       </c>
       <c r="N11">
-        <v>1.012961950450123</v>
+        <v>1.008453328736777</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.019826779249529</v>
+        <v>0.9822800159337143</v>
       </c>
       <c r="D12">
-        <v>1.026087499443394</v>
+        <v>1.003649561962453</v>
       </c>
       <c r="E12">
-        <v>1.021019334349074</v>
+        <v>0.9927581839557278</v>
       </c>
       <c r="F12">
-        <v>1.027896686768256</v>
+        <v>0.9070329853143925</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.03264222094304</v>
+        <v>1.033249662142753</v>
       </c>
       <c r="J12">
-        <v>1.026592739182007</v>
+        <v>1.01285372238616</v>
       </c>
       <c r="K12">
-        <v>1.029737217454959</v>
+        <v>1.018707174551283</v>
       </c>
       <c r="L12">
-        <v>1.024688610807868</v>
+        <v>1.008025453422869</v>
       </c>
       <c r="M12">
-        <v>1.031539474796041</v>
+        <v>0.9241878802652304</v>
       </c>
       <c r="N12">
-        <v>1.012928739917834</v>
+        <v>1.00826579229505</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.019867061837178</v>
+        <v>0.9825066253152402</v>
       </c>
       <c r="D13">
-        <v>1.026117931646066</v>
+        <v>1.003819238198184</v>
       </c>
       <c r="E13">
-        <v>1.021053073436108</v>
+        <v>0.9929326844628354</v>
       </c>
       <c r="F13">
-        <v>1.028014363378594</v>
+        <v>0.9078736179918983</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03265548903459</v>
+        <v>1.033357289764402</v>
       </c>
       <c r="J13">
-        <v>1.026614141229615</v>
+        <v>1.012974836950193</v>
       </c>
       <c r="K13">
-        <v>1.029757786075726</v>
+        <v>1.018829842274507</v>
       </c>
       <c r="L13">
-        <v>1.024712416475689</v>
+        <v>1.008152053518472</v>
       </c>
       <c r="M13">
-        <v>1.031646975493923</v>
+        <v>0.9249567874968905</v>
       </c>
       <c r="N13">
-        <v>1.012935864908959</v>
+        <v>1.008306169885145</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.019999060531659</v>
+        <v>0.9832465192369468</v>
       </c>
       <c r="D14">
-        <v>1.026217647642848</v>
+        <v>1.004373051310863</v>
       </c>
       <c r="E14">
-        <v>1.02116364344092</v>
+        <v>0.9935026208770781</v>
       </c>
       <c r="F14">
-        <v>1.028399730642563</v>
+        <v>0.9106027062838103</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032698910724778</v>
+        <v>1.033707508055819</v>
       </c>
       <c r="J14">
-        <v>1.026684254489747</v>
+        <v>1.013369938683468</v>
       </c>
       <c r="K14">
-        <v>1.029825160503039</v>
+        <v>1.019229828104413</v>
       </c>
       <c r="L14">
-        <v>1.024790416557864</v>
+        <v>1.008565248597808</v>
       </c>
       <c r="M14">
-        <v>1.031998992655409</v>
+        <v>0.9274528711055711</v>
       </c>
       <c r="N14">
-        <v>1.012959205806779</v>
+        <v>1.008437894164664</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.020080396782592</v>
+        <v>0.983700422775069</v>
       </c>
       <c r="D15">
-        <v>1.026279087967636</v>
+        <v>1.004712659357435</v>
       </c>
       <c r="E15">
-        <v>1.021231785623176</v>
+        <v>0.9938523992736557</v>
       </c>
       <c r="F15">
-        <v>1.028637008955424</v>
+        <v>0.9122653002028626</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032725624340299</v>
+        <v>1.033921461949646</v>
       </c>
       <c r="J15">
-        <v>1.026727444295583</v>
+        <v>1.0136120634532</v>
       </c>
       <c r="K15">
-        <v>1.029866656669275</v>
+        <v>1.01947480900851</v>
       </c>
       <c r="L15">
-        <v>1.024838474248088</v>
+        <v>1.008818610900614</v>
       </c>
       <c r="M15">
-        <v>1.032215716720927</v>
+        <v>0.9289733983218244</v>
       </c>
       <c r="N15">
-        <v>1.012973583334208</v>
+        <v>1.008518619818886</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.020553923123214</v>
+        <v>0.9863133162459035</v>
       </c>
       <c r="D16">
-        <v>1.026636727793544</v>
+        <v>1.006665686724245</v>
       </c>
       <c r="E16">
-        <v>1.021628651735826</v>
+        <v>0.9958680097656818</v>
       </c>
       <c r="F16">
-        <v>1.030015669780842</v>
+        <v>0.921672350750209</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032880500828605</v>
+        <v>1.035140171326583</v>
       </c>
       <c r="J16">
-        <v>1.026978685903962</v>
+        <v>1.01500212276227</v>
       </c>
       <c r="K16">
-        <v>1.03010794682316</v>
+        <v>1.02087929688779</v>
       </c>
       <c r="L16">
-        <v>1.025118179407737</v>
+        <v>1.0102753730649</v>
       </c>
       <c r="M16">
-        <v>1.033474647075624</v>
+        <v>0.9375747669455065</v>
       </c>
       <c r="N16">
-        <v>1.013057212249305</v>
+        <v>1.008982111914922</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.020851053955156</v>
+        <v>0.9879278111669947</v>
       </c>
       <c r="D17">
-        <v>1.026861092647278</v>
+        <v>1.007870957463021</v>
       </c>
       <c r="E17">
-        <v>1.021877814231243</v>
+        <v>0.9971153058676571</v>
       </c>
       <c r="F17">
-        <v>1.030878383329058</v>
+        <v>0.9273534457624732</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032977116339543</v>
+        <v>1.035882499211844</v>
       </c>
       <c r="J17">
-        <v>1.027136158387723</v>
+        <v>1.015857943062669</v>
       </c>
       <c r="K17">
-        <v>1.030259094707699</v>
+        <v>1.021742373522241</v>
       </c>
       <c r="L17">
-        <v>1.025293620885983</v>
+        <v>1.011174103981153</v>
       </c>
       <c r="M17">
-        <v>1.034262170288529</v>
+        <v>0.9427675711171237</v>
       </c>
       <c r="N17">
-        <v>1.013109622450852</v>
+        <v>1.009267500831956</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.021024401349095</v>
+        <v>0.9888610748495001</v>
       </c>
       <c r="D18">
-        <v>1.026991970501764</v>
+        <v>1.008567196827637</v>
       </c>
       <c r="E18">
-        <v>1.022023225143729</v>
+        <v>0.9978369794159029</v>
       </c>
       <c r="F18">
-        <v>1.031380850741338</v>
+        <v>0.9305944099000718</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033033278461462</v>
+        <v>1.036307971662391</v>
       </c>
       <c r="J18">
-        <v>1.027227964500971</v>
+        <v>1.016351604142475</v>
       </c>
       <c r="K18">
-        <v>1.03034718222109</v>
+        <v>1.022239669937688</v>
       </c>
       <c r="L18">
-        <v>1.025395949195465</v>
+        <v>1.011693154158707</v>
       </c>
       <c r="M18">
-        <v>1.034720748411305</v>
+        <v>0.9457293182296496</v>
       </c>
       <c r="N18">
-        <v>1.01314017513301</v>
+        <v>1.009432130282738</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.021083514425116</v>
+        <v>0.9891778954698326</v>
       </c>
       <c r="D19">
-        <v>1.027036598096858</v>
+        <v>1.008803479147824</v>
       </c>
       <c r="E19">
-        <v>1.022072819823926</v>
+        <v>0.9980820839328615</v>
       </c>
       <c r="F19">
-        <v>1.031552054973454</v>
+        <v>0.9316877135341062</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033052395763902</v>
+        <v>1.036451812089707</v>
       </c>
       <c r="J19">
-        <v>1.027259260395903</v>
+        <v>1.016519017813616</v>
       </c>
       <c r="K19">
-        <v>1.030377205163369</v>
+        <v>1.022408226099185</v>
       </c>
       <c r="L19">
-        <v>1.025430839863762</v>
+        <v>1.011869283752454</v>
       </c>
       <c r="M19">
-        <v>1.034876982017002</v>
+        <v>0.946728316710982</v>
       </c>
       <c r="N19">
-        <v>1.01315058987315</v>
+        <v>1.009487961937828</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.020819170901781</v>
+        <v>0.9877554727798841</v>
       </c>
       <c r="D20">
-        <v>1.02683701942476</v>
+        <v>1.007742351774322</v>
       </c>
       <c r="E20">
-        <v>1.021851073313829</v>
+        <v>0.9969820943525938</v>
       </c>
       <c r="F20">
-        <v>1.0307858990219</v>
+        <v>0.9267515749696607</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032966770288195</v>
+        <v>1.035803641474149</v>
       </c>
       <c r="J20">
-        <v>1.027119267727809</v>
+        <v>1.015766699140409</v>
       </c>
       <c r="K20">
-        <v>1.030242885677964</v>
+        <v>1.021650413861817</v>
       </c>
       <c r="L20">
-        <v>1.025274798060736</v>
+        <v>1.011078218382395</v>
       </c>
       <c r="M20">
-        <v>1.034177756487909</v>
+        <v>0.942217498832101</v>
       </c>
       <c r="N20">
-        <v>1.013104001121831</v>
+        <v>1.009237072894049</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.019960188643265</v>
+        <v>0.9830290518582497</v>
       </c>
       <c r="D21">
-        <v>1.026188283348632</v>
+        <v>1.004210306050603</v>
       </c>
       <c r="E21">
-        <v>1.021131079922406</v>
+        <v>0.9933350779272819</v>
       </c>
       <c r="F21">
-        <v>1.028286282818125</v>
+        <v>0.9098030394640225</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032686132438746</v>
+        <v>1.033604761448028</v>
       </c>
       <c r="J21">
-        <v>1.026663609817242</v>
+        <v>1.013253866084117</v>
       </c>
       <c r="K21">
-        <v>1.029805323631174</v>
+        <v>1.019112349522899</v>
       </c>
       <c r="L21">
-        <v>1.02476744763048</v>
+        <v>1.008443829101865</v>
       </c>
       <c r="M21">
-        <v>1.031895366881042</v>
+        <v>0.926721502737357</v>
       </c>
       <c r="N21">
-        <v>1.012952333237866</v>
+        <v>1.008399195724111</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.019420439494478</v>
+        <v>0.9799723645136299</v>
       </c>
       <c r="D22">
-        <v>1.025780484807849</v>
+        <v>1.00192001723601</v>
       </c>
       <c r="E22">
-        <v>1.020679104928604</v>
+        <v>0.9909826204612555</v>
       </c>
       <c r="F22">
-        <v>1.026707755755178</v>
+        <v>0.8983388257702556</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.032507942572226</v>
+        <v>1.032143654638251</v>
       </c>
       <c r="J22">
-        <v>1.026376714160805</v>
+        <v>1.011617471930968</v>
       </c>
       <c r="K22">
-        <v>1.02952953709588</v>
+        <v>1.017453533926412</v>
       </c>
       <c r="L22">
-        <v>1.024448424027877</v>
+        <v>1.006734855217622</v>
       </c>
       <c r="M22">
-        <v>1.030453148221941</v>
+        <v>0.916234380978058</v>
       </c>
       <c r="N22">
-        <v>1.012856817741459</v>
+        <v>1.007853681038594</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.01970653959961</v>
+        <v>0.9816013201110554</v>
       </c>
       <c r="D23">
-        <v>1.025996658195928</v>
+        <v>1.003141211893598</v>
       </c>
       <c r="E23">
-        <v>1.020918637565975</v>
+        <v>0.9922357080662636</v>
       </c>
       <c r="F23">
-        <v>1.027545231565467</v>
+        <v>0.9045015578723954</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.032602570044467</v>
+        <v>1.032926280131791</v>
       </c>
       <c r="J23">
-        <v>1.026528841448428</v>
+        <v>1.012490683807595</v>
       </c>
       <c r="K23">
-        <v>1.029675800778075</v>
+        <v>1.018339321290163</v>
       </c>
       <c r="L23">
-        <v>1.024617547468671</v>
+        <v>1.007646143627481</v>
       </c>
       <c r="M23">
-        <v>1.031218389132226</v>
+        <v>0.9218723170998564</v>
       </c>
       <c r="N23">
-        <v>1.012907467090733</v>
+        <v>1.008144764716283</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.020833577370408</v>
+        <v>0.9878333710824665</v>
       </c>
       <c r="D24">
-        <v>1.026847897048373</v>
+        <v>1.007800483999289</v>
       </c>
       <c r="E24">
-        <v>1.021863156140748</v>
+        <v>0.9970423049228221</v>
       </c>
       <c r="F24">
-        <v>1.030827690980802</v>
+        <v>0.927023757672883</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.032971445817027</v>
+        <v>1.035839297004854</v>
       </c>
       <c r="J24">
-        <v>1.02712690002902</v>
+        <v>1.015807945345792</v>
       </c>
       <c r="K24">
-        <v>1.030250210071179</v>
+        <v>1.021691985312055</v>
       </c>
       <c r="L24">
-        <v>1.025283303297067</v>
+        <v>1.011121560855038</v>
       </c>
       <c r="M24">
-        <v>1.034215901831398</v>
+        <v>0.9424662588641451</v>
       </c>
       <c r="N24">
-        <v>1.013106541211993</v>
+        <v>1.009250827612067</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.02214285265814</v>
+        <v>0.9947366861954751</v>
       </c>
       <c r="D25">
-        <v>1.027836089312009</v>
+        <v>1.01294378338972</v>
       </c>
       <c r="E25">
-        <v>1.022962299527358</v>
+        <v>1.002392339238879</v>
       </c>
       <c r="F25">
-        <v>1.03460795045666</v>
+        <v>0.9503407055261897</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.033391976456218</v>
+        <v>1.038927511854435</v>
       </c>
       <c r="J25">
-        <v>1.027819151566173</v>
+        <v>1.019442489498882</v>
       </c>
       <c r="K25">
-        <v>1.030913859054774</v>
+        <v>1.025344432647136</v>
       </c>
       <c r="L25">
-        <v>1.026055728257127</v>
+        <v>1.014953630394858</v>
       </c>
       <c r="M25">
-        <v>1.037664230731661</v>
+        <v>0.9637621570370513</v>
       </c>
       <c r="N25">
-        <v>1.013336876830971</v>
+        <v>1.010463018686257</v>
       </c>
     </row>
   </sheetData>
